--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\shreyash\finalyear\face-detect-experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2CA2ED-7F87-4802-934E-7F88ED72BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2CCCEA-C09F-4174-81FA-4E64067E55A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{391E944C-FEA9-434F-941C-2EF3E59DF843}"/>
   </bookViews>
@@ -660,7 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03AFD9D-B3EC-45BA-A628-FBB90DB15761}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
